--- a/CoreRulebook/Data/Archetypes/Slytherin.xlsx
+++ b/CoreRulebook/Data/Archetypes/Slytherin.xlsx
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Weapons:</t>
   </si>
   <si>
-    <t xml:space="preserve">Simple Weapons</t>
+    <t xml:space="preserve">Wands, Simple Weapons</t>
   </si>
   <si>
     <t xml:space="preserve">Proficiencies:</t>
@@ -230,8 +230,8 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
